--- a/biology/Microbiologie/Korarchaeota/Korarchaeota.xlsx
+++ b/biology/Microbiologie/Korarchaeota/Korarchaeota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Korarchaeota, ou Xenarcheota, sont un embranchement (phylum) d'archées thermophiles mis en évidence par l'analyse de séquences d'ARNr 16S[2] à partir d'échantillons environnementaux provenant de sources chaudes du parc national de Yellowstone.
-Ces organismes se seraient différentiés assez tôt des Crenarchaeota et des Euryarchaeota, comme le suggèrent des études génétiques[3],[4]. Leur diversité phylogénétique semble avoir été sous-tendue par la dispersion géographique et les différences de températures et de salinité des milieux colonisés[5]. Ils ne sont jamais présents en abondance dans les milieux étudiés jusqu'à présent[5],[6].
-Une seule espèce a été proposée dans cet embranchement : Candidatus Korarchaeum cryptofilum par Elkins et al., 2008[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Korarchaeota, ou Xenarcheota, sont un embranchement (phylum) d'archées thermophiles mis en évidence par l'analyse de séquences d'ARNr 16S à partir d'échantillons environnementaux provenant de sources chaudes du parc national de Yellowstone.
+Ces organismes se seraient différentiés assez tôt des Crenarchaeota et des Euryarchaeota, comme le suggèrent des études génétiques,. Leur diversité phylogénétique semble avoir été sous-tendue par la dispersion géographique et les différences de températures et de salinité des milieux colonisés. Ils ne sont jamais présents en abondance dans les milieux étudiés jusqu'à présent,.
+Une seule espèce a été proposée dans cet embranchement : Candidatus Korarchaeum cryptofilum par Elkins et al., 2008.
 </t>
         </is>
       </c>
